--- a/streamlit/templates/Address_template.xlsx
+++ b/streamlit/templates/Address_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul.carroll/Github/pycom/nhs_time_of_travel/streamlit/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul.carroll/Github/pycom/nhs_time_of_travel/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD9B59-45C3-7B4B-939B-ACFAB5F56E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{366EFBB8-D42B-1043-AE52-2D322DA912CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1180" windowWidth="22920" windowHeight="14820" xr2:uid="{EF08C01F-1A25-6E46-B3B0-470DDF1A58B3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -53,55 +53,67 @@
     <t>City</t>
   </si>
   <si>
-    <t>Lifestyles</t>
-  </si>
-  <si>
-    <t>55 Wentworth Road</t>
-  </si>
-  <si>
-    <t>York</t>
-  </si>
-  <si>
-    <t>North Yorkshire</t>
-  </si>
-  <si>
-    <t>YO24 1DG</t>
-  </si>
-  <si>
-    <t>Riverside Court</t>
-  </si>
-  <si>
-    <t>Bridge Street, Boroughbridge</t>
-  </si>
-  <si>
-    <t>YO51 9LA</t>
-  </si>
-  <si>
-    <t>St John's House</t>
-  </si>
-  <si>
-    <t>Parker Lane, Kirk Hammerton</t>
-  </si>
-  <si>
-    <t>YO26 8BT</t>
-  </si>
-  <si>
-    <t>Handley House</t>
-  </si>
-  <si>
-    <t>Green Lane</t>
-  </si>
-  <si>
-    <t>YO30 6RG</t>
-  </si>
-  <si>
-    <t>Barchester Ouse View Care Home</t>
-  </si>
-  <si>
-    <t>1 Fordlands Road, Fulford</t>
-  </si>
-  <si>
-    <t>YO19 4QT</t>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Leicestershire</t>
+  </si>
+  <si>
+    <t>Leicester Royal Infirmary</t>
+  </si>
+  <si>
+    <t>Infirmary Square</t>
+  </si>
+  <si>
+    <t>LE1 5WW</t>
+  </si>
+  <si>
+    <t>Harley Grange Care Home</t>
+  </si>
+  <si>
+    <t>25 Elms Road</t>
+  </si>
+  <si>
+    <t>LE2 3JD</t>
+  </si>
+  <si>
+    <t>Cedar Court Care Home</t>
+  </si>
+  <si>
+    <t>27 Long Street</t>
+  </si>
+  <si>
+    <t>LE18 2BP</t>
+  </si>
+  <si>
+    <t>Ashford House Residential Home</t>
+  </si>
+  <si>
+    <t>34 Station Road</t>
+  </si>
+  <si>
+    <t>Rearsby</t>
+  </si>
+  <si>
+    <t>LE7 4YY</t>
+  </si>
+  <si>
+    <t>Broadoak Grange</t>
+  </si>
+  <si>
+    <t>Sandy Lane</t>
+  </si>
+  <si>
+    <t>Melton Mowbray</t>
+  </si>
+  <si>
+    <t>LE13 0AN</t>
   </si>
 </sst>
 </file>
@@ -145,9 +157,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,20 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130D6FBD-61C5-0145-B4F6-07535D218775}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,13 +504,19 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -505,16 +524,16 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -523,15 +542,15 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -540,41 +559,41 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
